--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 3 (16, 22, 47, 15, 7)/MDD 11 (2,)/ANN_128nodes_Uniform0.05Virtual_Control(16, 22, 47, 15, 7)_MDD(2,)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 3 (16, 22, 47, 15, 7)/MDD 11 (2,)/ANN_128nodes_Uniform0.05Virtual_Control(16, 22, 47, 15, 7)_MDD(2,)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -458,10 +458,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.798435481264806</v>
+        <v>0.9998630581663609</v>
       </c>
       <c r="E3">
-        <v>0.798435481264806</v>
+        <v>0.9998630581663609</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -472,10 +472,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.0001379604371225647</v>
+        <v>2.015437435285352E-06</v>
       </c>
       <c r="E4">
-        <v>0.0001379604371225647</v>
+        <v>2.015437435285352E-06</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -486,10 +486,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>6.275618373908366E-09</v>
+        <v>3.353121724228589E-10</v>
       </c>
       <c r="E5">
-        <v>6.275618373908366E-09</v>
+        <v>3.353121724228589E-10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -500,10 +500,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1.782488905666746E-27</v>
+        <v>4.100039910519209E-19</v>
       </c>
       <c r="E6">
-        <v>1.782488905666746E-27</v>
+        <v>4.100039910519209E-19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>13.12380599975586</v>
+        <v>12.50727081298828</v>
       </c>
       <c r="G7">
         <v>0.6666666666666666</v>
